--- a/cars.xlsx
+++ b/cars.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e7619ba981ed971b/Desktop/New folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88A5182D-8F55-4AE2-B15A-156426BECDB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CBD09D4-19C2-469A-A009-E8C0E198D4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E375526F-4AA8-48ED-ABB1-1589247C6F39}"/>
   </bookViews>
@@ -2056,10 +2056,10 @@
     <t>177 ltrs</t>
   </si>
   <si>
+    <t>nil</t>
+  </si>
+  <si>
     <t>145/80R15</t>
-  </si>
-  <si>
-    <t>nil</t>
   </si>
   <si>
     <t>796 cc</t>
@@ -3357,8 +3357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A379029D-5FA3-41BA-A0FA-5D2218AC0286}">
   <dimension ref="A1:S137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView tabSelected="1" topLeftCell="F129" workbookViewId="0">
+      <selection activeCell="P142" sqref="P142:P160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6525,11 +6525,11 @@
       <c r="I54" t="s">
         <v>387</v>
       </c>
-      <c r="J54" t="s">
+      <c r="J54">
+        <v>4</v>
+      </c>
+      <c r="K54" t="s">
         <v>104</v>
-      </c>
-      <c r="K54">
-        <v>4</v>
       </c>
       <c r="L54" t="s">
         <v>388</v>
@@ -6584,11 +6584,11 @@
       <c r="I55" t="s">
         <v>395</v>
       </c>
-      <c r="J55" t="s">
+      <c r="J55">
+        <v>4</v>
+      </c>
+      <c r="K55" t="s">
         <v>396</v>
-      </c>
-      <c r="K55">
-        <v>4</v>
       </c>
       <c r="L55" t="s">
         <v>388</v>
@@ -6643,11 +6643,11 @@
       <c r="I56" t="s">
         <v>403</v>
       </c>
-      <c r="J56" t="s">
+      <c r="J56">
+        <v>2</v>
+      </c>
+      <c r="K56" t="s">
         <v>404</v>
-      </c>
-      <c r="K56">
-        <v>2</v>
       </c>
       <c r="L56" t="s">
         <v>405</v>
@@ -6702,11 +6702,11 @@
       <c r="I57" t="s">
         <v>412</v>
       </c>
-      <c r="J57" t="s">
+      <c r="J57">
+        <v>4</v>
+      </c>
+      <c r="K57" t="s">
         <v>413</v>
-      </c>
-      <c r="K57">
-        <v>4</v>
       </c>
       <c r="L57" t="s">
         <v>388</v>
@@ -6762,10 +6762,10 @@
         <v>403</v>
       </c>
       <c r="J58" t="s">
+        <v>150</v>
+      </c>
+      <c r="K58" t="s">
         <v>419</v>
-      </c>
-      <c r="K58" t="s">
-        <v>150</v>
       </c>
       <c r="L58" t="s">
         <v>405</v>
@@ -6820,11 +6820,11 @@
       <c r="I59" t="s">
         <v>425</v>
       </c>
-      <c r="J59" t="s">
+      <c r="J59">
+        <v>2</v>
+      </c>
+      <c r="K59" t="s">
         <v>426</v>
-      </c>
-      <c r="K59">
-        <v>2</v>
       </c>
       <c r="L59" t="s">
         <v>388</v>
@@ -6879,11 +6879,11 @@
       <c r="I60" t="s">
         <v>431</v>
       </c>
-      <c r="J60" t="s">
+      <c r="J60">
+        <v>4</v>
+      </c>
+      <c r="K60" t="s">
         <v>432</v>
-      </c>
-      <c r="K60">
-        <v>4</v>
       </c>
       <c r="L60" t="s">
         <v>388</v>
@@ -6938,11 +6938,11 @@
       <c r="I61" t="s">
         <v>440</v>
       </c>
-      <c r="J61" t="s">
+      <c r="J61">
+        <v>3</v>
+      </c>
+      <c r="K61" t="s">
         <v>441</v>
-      </c>
-      <c r="K61">
-        <v>3</v>
       </c>
       <c r="L61" t="s">
         <v>388</v>
@@ -6997,11 +6997,11 @@
       <c r="I62" t="s">
         <v>448</v>
       </c>
-      <c r="J62" t="s">
+      <c r="J62">
+        <v>6</v>
+      </c>
+      <c r="K62" t="s">
         <v>449</v>
-      </c>
-      <c r="K62">
-        <v>6</v>
       </c>
       <c r="L62" t="s">
         <v>388</v>
@@ -7056,11 +7056,11 @@
       <c r="I63" t="s">
         <v>455</v>
       </c>
-      <c r="J63" t="s">
+      <c r="J63">
+        <v>6</v>
+      </c>
+      <c r="K63" t="s">
         <v>449</v>
-      </c>
-      <c r="K63">
-        <v>6</v>
       </c>
       <c r="L63" t="s">
         <v>388</v>
@@ -7115,11 +7115,11 @@
       <c r="I64" t="s">
         <v>460</v>
       </c>
-      <c r="J64" t="s">
+      <c r="J64">
+        <v>6</v>
+      </c>
+      <c r="K64" t="s">
         <v>449</v>
-      </c>
-      <c r="K64">
-        <v>6</v>
       </c>
       <c r="L64" t="s">
         <v>388</v>
@@ -7174,11 +7174,11 @@
       <c r="I65" t="s">
         <v>467</v>
       </c>
-      <c r="J65" t="s">
+      <c r="J65">
+        <v>5</v>
+      </c>
+      <c r="K65" t="s">
         <v>468</v>
-      </c>
-      <c r="K65">
-        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:19">
@@ -7209,11 +7209,11 @@
       <c r="I66" t="s">
         <v>473</v>
       </c>
-      <c r="J66" t="s">
+      <c r="J66">
+        <v>4</v>
+      </c>
+      <c r="K66" t="s">
         <v>474</v>
-      </c>
-      <c r="K66">
-        <v>4</v>
       </c>
       <c r="L66" t="s">
         <v>388</v>
@@ -7268,11 +7268,11 @@
       <c r="I67" t="s">
         <v>480</v>
       </c>
-      <c r="J67" t="s">
+      <c r="J67">
+        <v>8</v>
+      </c>
+      <c r="K67" t="s">
         <v>396</v>
-      </c>
-      <c r="K67">
-        <v>8</v>
       </c>
       <c r="L67" t="s">
         <v>388</v>
@@ -7327,11 +7327,11 @@
       <c r="I68" t="s">
         <v>486</v>
       </c>
-      <c r="J68" t="s">
+      <c r="J68">
+        <v>6</v>
+      </c>
+      <c r="K68" t="s">
         <v>487</v>
-      </c>
-      <c r="K68">
-        <v>6</v>
       </c>
       <c r="L68" t="s">
         <v>388</v>
@@ -7386,11 +7386,11 @@
       <c r="I69" t="s">
         <v>493</v>
       </c>
-      <c r="J69" t="s">
+      <c r="J69">
+        <v>8</v>
+      </c>
+      <c r="K69" t="s">
         <v>396</v>
-      </c>
-      <c r="K69">
-        <v>8</v>
       </c>
       <c r="L69" t="s">
         <v>388</v>
@@ -7445,11 +7445,11 @@
       <c r="I70" t="s">
         <v>499</v>
       </c>
-      <c r="J70" t="s">
+      <c r="J70">
+        <v>7</v>
+      </c>
+      <c r="K70" t="s">
         <v>500</v>
-      </c>
-      <c r="K70">
-        <v>7</v>
       </c>
       <c r="L70" t="s">
         <v>388</v>
@@ -7504,11 +7504,11 @@
       <c r="I71" t="s">
         <v>505</v>
       </c>
-      <c r="J71" t="s">
+      <c r="J71">
+        <v>7</v>
+      </c>
+      <c r="K71" t="s">
         <v>506</v>
-      </c>
-      <c r="K71">
-        <v>7</v>
       </c>
       <c r="L71" t="s">
         <v>388</v>
@@ -7563,11 +7563,11 @@
       <c r="I72" t="s">
         <v>513</v>
       </c>
-      <c r="J72" t="s">
+      <c r="J72">
+        <v>7</v>
+      </c>
+      <c r="K72" t="s">
         <v>514</v>
-      </c>
-      <c r="K72">
-        <v>7</v>
       </c>
       <c r="L72" t="s">
         <v>388</v>
@@ -7622,11 +7622,11 @@
       <c r="I73" t="s">
         <v>521</v>
       </c>
-      <c r="J73" t="s">
+      <c r="J73">
+        <v>7</v>
+      </c>
+      <c r="K73" t="s">
         <v>522</v>
-      </c>
-      <c r="K73">
-        <v>7</v>
       </c>
       <c r="L73" t="s">
         <v>388</v>
@@ -7681,11 +7681,11 @@
       <c r="I74" t="s">
         <v>528</v>
       </c>
-      <c r="J74" t="s">
+      <c r="J74">
+        <v>9</v>
+      </c>
+      <c r="K74" t="s">
         <v>529</v>
-      </c>
-      <c r="K74">
-        <v>9</v>
       </c>
       <c r="L74" t="s">
         <v>388</v>
@@ -7740,11 +7740,11 @@
       <c r="I75" t="s">
         <v>535</v>
       </c>
-      <c r="J75" t="s">
+      <c r="J75">
+        <v>10</v>
+      </c>
+      <c r="K75" t="s">
         <v>536</v>
-      </c>
-      <c r="K75">
-        <v>10</v>
       </c>
       <c r="L75" t="s">
         <v>388</v>
@@ -7799,11 +7799,11 @@
       <c r="I76" t="s">
         <v>521</v>
       </c>
-      <c r="J76" t="s">
+      <c r="J76">
+        <v>7</v>
+      </c>
+      <c r="K76" t="s">
         <v>542</v>
-      </c>
-      <c r="K76">
-        <v>7</v>
       </c>
       <c r="L76" t="s">
         <v>388</v>
@@ -7858,11 +7858,11 @@
       <c r="I77" t="s">
         <v>548</v>
       </c>
-      <c r="J77" t="s">
+      <c r="J77">
+        <v>7</v>
+      </c>
+      <c r="K77" t="s">
         <v>549</v>
-      </c>
-      <c r="K77">
-        <v>7</v>
       </c>
       <c r="L77" t="s">
         <v>388</v>
@@ -7917,11 +7917,11 @@
       <c r="I78" t="s">
         <v>555</v>
       </c>
-      <c r="J78" t="s">
+      <c r="J78">
+        <v>7</v>
+      </c>
+      <c r="K78" t="s">
         <v>256</v>
-      </c>
-      <c r="K78">
-        <v>7</v>
       </c>
       <c r="L78" t="s">
         <v>388</v>
@@ -7976,11 +7976,11 @@
       <c r="I79" t="s">
         <v>559</v>
       </c>
-      <c r="J79" t="s">
+      <c r="J79">
+        <v>9</v>
+      </c>
+      <c r="K79" t="s">
         <v>560</v>
-      </c>
-      <c r="K79">
-        <v>9</v>
       </c>
       <c r="L79" t="s">
         <v>388</v>
@@ -8035,11 +8035,11 @@
       <c r="I80" t="s">
         <v>566</v>
       </c>
-      <c r="J80" t="s">
+      <c r="J80">
+        <v>7</v>
+      </c>
+      <c r="K80" t="s">
         <v>567</v>
-      </c>
-      <c r="K80">
-        <v>7</v>
       </c>
       <c r="L80" t="s">
         <v>388</v>
@@ -8094,11 +8094,11 @@
       <c r="I81" t="s">
         <v>573</v>
       </c>
-      <c r="J81" t="s">
+      <c r="J81">
+        <v>4</v>
+      </c>
+      <c r="K81" t="s">
         <v>574</v>
-      </c>
-      <c r="K81">
-        <v>4</v>
       </c>
       <c r="L81" t="s">
         <v>388</v>
@@ -8153,11 +8153,11 @@
       <c r="I82" t="s">
         <v>403</v>
       </c>
-      <c r="J82" t="s">
+      <c r="J82">
+        <v>2</v>
+      </c>
+      <c r="K82" t="s">
         <v>580</v>
-      </c>
-      <c r="K82">
-        <v>2</v>
       </c>
       <c r="L82" t="s">
         <v>405</v>
@@ -8212,11 +8212,11 @@
       <c r="I83" t="s">
         <v>583</v>
       </c>
-      <c r="J83" t="s">
+      <c r="J83">
+        <v>2</v>
+      </c>
+      <c r="K83" t="s">
         <v>584</v>
-      </c>
-      <c r="K83">
-        <v>2</v>
       </c>
       <c r="L83" t="s">
         <v>388</v>
@@ -8271,11 +8271,11 @@
       <c r="I84" t="s">
         <v>590</v>
       </c>
-      <c r="J84" t="s">
+      <c r="J84">
+        <v>2</v>
+      </c>
+      <c r="K84" t="s">
         <v>574</v>
-      </c>
-      <c r="K84">
-        <v>2</v>
       </c>
       <c r="L84" t="s">
         <v>388</v>
@@ -8330,11 +8330,11 @@
       <c r="I85" t="s">
         <v>597</v>
       </c>
-      <c r="J85" t="s">
+      <c r="J85">
+        <v>2</v>
+      </c>
+      <c r="K85" t="s">
         <v>574</v>
-      </c>
-      <c r="K85">
-        <v>2</v>
       </c>
       <c r="L85" t="s">
         <v>388</v>
@@ -8389,11 +8389,11 @@
       <c r="I86" t="s">
         <v>573</v>
       </c>
-      <c r="J86" t="s">
+      <c r="J86">
+        <v>2</v>
+      </c>
+      <c r="K86" t="s">
         <v>574</v>
-      </c>
-      <c r="K86">
-        <v>2</v>
       </c>
       <c r="L86" t="s">
         <v>388</v>
@@ -8448,11 +8448,11 @@
       <c r="I87" t="s">
         <v>608</v>
       </c>
-      <c r="J87" t="s">
+      <c r="J87">
+        <v>2</v>
+      </c>
+      <c r="K87" t="s">
         <v>609</v>
-      </c>
-      <c r="K87">
-        <v>2</v>
       </c>
       <c r="L87" t="s">
         <v>388</v>
@@ -8566,11 +8566,11 @@
       <c r="I89" t="s">
         <v>623</v>
       </c>
-      <c r="J89" t="s">
+      <c r="J89">
+        <v>2</v>
+      </c>
+      <c r="K89" t="s">
         <v>574</v>
-      </c>
-      <c r="K89">
-        <v>2</v>
       </c>
       <c r="L89" t="s">
         <v>388</v>
@@ -8625,11 +8625,11 @@
       <c r="I90" t="s">
         <v>627</v>
       </c>
-      <c r="J90" t="s">
+      <c r="J90">
+        <v>2</v>
+      </c>
+      <c r="K90" t="s">
         <v>628</v>
-      </c>
-      <c r="K90">
-        <v>2</v>
       </c>
       <c r="L90" t="s">
         <v>405</v>
@@ -8684,11 +8684,11 @@
       <c r="I91" t="s">
         <v>632</v>
       </c>
-      <c r="J91" t="s">
+      <c r="J91">
+        <v>4</v>
+      </c>
+      <c r="K91" t="s">
         <v>584</v>
-      </c>
-      <c r="K91">
-        <v>4</v>
       </c>
       <c r="L91" t="s">
         <v>388</v>
@@ -8743,11 +8743,11 @@
       <c r="I92" t="s">
         <v>636</v>
       </c>
-      <c r="J92" t="s">
+      <c r="J92">
+        <v>4</v>
+      </c>
+      <c r="K92" t="s">
         <v>396</v>
-      </c>
-      <c r="K92">
-        <v>4</v>
       </c>
       <c r="L92" t="s">
         <v>388</v>
@@ -8802,11 +8802,11 @@
       <c r="I93" t="s">
         <v>639</v>
       </c>
-      <c r="J93" t="s">
+      <c r="J93">
+        <v>4</v>
+      </c>
+      <c r="K93" t="s">
         <v>396</v>
-      </c>
-      <c r="K93">
-        <v>4</v>
       </c>
       <c r="L93" t="s">
         <v>388</v>
@@ -8861,11 +8861,11 @@
       <c r="I94" t="s">
         <v>643</v>
       </c>
-      <c r="J94" t="s">
+      <c r="J94">
+        <v>2</v>
+      </c>
+      <c r="K94" t="s">
         <v>644</v>
-      </c>
-      <c r="K94">
-        <v>2</v>
       </c>
       <c r="L94" t="s">
         <v>405</v>
@@ -8920,11 +8920,11 @@
       <c r="I95" t="s">
         <v>650</v>
       </c>
-      <c r="J95" t="s">
+      <c r="J95">
+        <v>4</v>
+      </c>
+      <c r="K95" t="s">
         <v>651</v>
-      </c>
-      <c r="K95">
-        <v>4</v>
       </c>
       <c r="L95" t="s">
         <v>388</v>
@@ -8979,11 +8979,11 @@
       <c r="I96" t="s">
         <v>656</v>
       </c>
-      <c r="J96" t="s">
+      <c r="J96">
+        <v>2</v>
+      </c>
+      <c r="K96" t="s">
         <v>657</v>
-      </c>
-      <c r="K96">
-        <v>2</v>
       </c>
       <c r="L96" t="s">
         <v>405</v>
@@ -9038,11 +9038,11 @@
       <c r="I97" t="s">
         <v>662</v>
       </c>
-      <c r="J97" t="s">
+      <c r="J97">
+        <v>4</v>
+      </c>
+      <c r="K97" t="s">
         <v>663</v>
-      </c>
-      <c r="K97">
-        <v>4</v>
       </c>
       <c r="L97" t="s">
         <v>388</v>
@@ -9097,11 +9097,11 @@
       <c r="I98" t="s">
         <v>597</v>
       </c>
-      <c r="J98" t="s">
+      <c r="J98">
+        <v>2</v>
+      </c>
+      <c r="K98" t="s">
         <v>669</v>
-      </c>
-      <c r="K98">
-        <v>2</v>
       </c>
       <c r="L98" t="s">
         <v>388</v>
@@ -9156,11 +9156,11 @@
       <c r="I99" t="s">
         <v>675</v>
       </c>
-      <c r="J99" t="s">
+      <c r="J99">
+        <v>4</v>
+      </c>
+      <c r="K99" t="s">
         <v>676</v>
-      </c>
-      <c r="K99">
-        <v>4</v>
       </c>
       <c r="L99" t="s">
         <v>388</v>
@@ -9215,11 +9215,11 @@
       <c r="I100" t="s">
         <v>684</v>
       </c>
-      <c r="J100" t="s">
+      <c r="J100">
+        <v>8</v>
+      </c>
+      <c r="K100" t="s">
         <v>514</v>
-      </c>
-      <c r="K100">
-        <v>8</v>
       </c>
       <c r="L100" t="s">
         <v>390</v>
@@ -9274,11 +9274,11 @@
       <c r="I101" t="s">
         <v>692</v>
       </c>
-      <c r="J101" t="s">
+      <c r="J101">
+        <v>4</v>
+      </c>
+      <c r="K101" t="s">
         <v>693</v>
-      </c>
-      <c r="K101">
-        <v>4</v>
       </c>
       <c r="L101" t="s">
         <v>388</v>
@@ -9333,11 +9333,11 @@
       <c r="I102" t="s">
         <v>700</v>
       </c>
-      <c r="J102" t="s">
+      <c r="J102">
+        <v>8</v>
+      </c>
+      <c r="K102" t="s">
         <v>701</v>
-      </c>
-      <c r="K102">
-        <v>8</v>
       </c>
       <c r="L102" t="s">
         <v>390</v>
@@ -9392,11 +9392,11 @@
       <c r="I103" t="s">
         <v>710</v>
       </c>
-      <c r="J103" t="s">
+      <c r="J103">
+        <v>8</v>
+      </c>
+      <c r="K103" t="s">
         <v>711</v>
-      </c>
-      <c r="K103">
-        <v>8</v>
       </c>
       <c r="L103" t="s">
         <v>390</v>
@@ -9451,11 +9451,11 @@
       <c r="I104" t="s">
         <v>715</v>
       </c>
-      <c r="J104" t="s">
+      <c r="J104">
+        <v>4</v>
+      </c>
+      <c r="K104" t="s">
         <v>628</v>
-      </c>
-      <c r="K104">
-        <v>4</v>
       </c>
       <c r="L104" t="s">
         <v>388</v>
@@ -9507,11 +9507,11 @@
       <c r="H105" t="s">
         <v>394</v>
       </c>
-      <c r="J105" t="s">
+      <c r="J105">
+        <v>4</v>
+      </c>
+      <c r="K105" t="s">
         <v>663</v>
-      </c>
-      <c r="K105">
-        <v>4</v>
       </c>
       <c r="L105" t="s">
         <v>388</v>
@@ -9566,11 +9566,11 @@
       <c r="I106" t="s">
         <v>726</v>
       </c>
-      <c r="J106" t="s">
+      <c r="J106">
+        <v>4</v>
+      </c>
+      <c r="K106" t="s">
         <v>727</v>
-      </c>
-      <c r="K106">
-        <v>4</v>
       </c>
       <c r="L106" t="s">
         <v>388</v>
@@ -9625,11 +9625,11 @@
       <c r="I107" t="s">
         <v>734</v>
       </c>
-      <c r="J107" t="s">
+      <c r="J107">
+        <v>4</v>
+      </c>
+      <c r="K107" t="s">
         <v>735</v>
-      </c>
-      <c r="K107">
-        <v>4</v>
       </c>
       <c r="L107" t="s">
         <v>388</v>
@@ -9684,11 +9684,11 @@
       <c r="I108" t="s">
         <v>742</v>
       </c>
-      <c r="J108" t="s">
+      <c r="J108">
+        <v>4</v>
+      </c>
+      <c r="K108" t="s">
         <v>743</v>
-      </c>
-      <c r="K108">
-        <v>4</v>
       </c>
       <c r="L108" t="s">
         <v>388</v>
@@ -9743,11 +9743,11 @@
       <c r="I109" t="s">
         <v>632</v>
       </c>
-      <c r="J109" t="s">
+      <c r="J109">
+        <v>2</v>
+      </c>
+      <c r="K109" t="s">
         <v>748</v>
-      </c>
-      <c r="K109">
-        <v>2</v>
       </c>
       <c r="L109" t="s">
         <v>388</v>
@@ -9802,11 +9802,11 @@
       <c r="I110" t="s">
         <v>754</v>
       </c>
-      <c r="J110" t="s">
+      <c r="J110">
+        <v>2</v>
+      </c>
+      <c r="K110" t="s">
         <v>755</v>
-      </c>
-      <c r="K110">
-        <v>2</v>
       </c>
       <c r="L110" t="s">
         <v>405</v>
@@ -9861,11 +9861,11 @@
       <c r="I111" t="s">
         <v>760</v>
       </c>
-      <c r="J111" t="s">
+      <c r="J111">
+        <v>2</v>
+      </c>
+      <c r="K111" t="s">
         <v>761</v>
-      </c>
-      <c r="K111">
-        <v>2</v>
       </c>
       <c r="L111" t="s">
         <v>388</v>
@@ -9920,11 +9920,11 @@
       <c r="I112" t="s">
         <v>766</v>
       </c>
-      <c r="J112" t="s">
+      <c r="J112">
+        <v>2</v>
+      </c>
+      <c r="K112" t="s">
         <v>767</v>
-      </c>
-      <c r="K112">
-        <v>2</v>
       </c>
       <c r="L112" t="s">
         <v>388</v>
@@ -9979,11 +9979,11 @@
       <c r="I113" t="s">
         <v>771</v>
       </c>
-      <c r="J113" t="s">
+      <c r="J113">
+        <v>2</v>
+      </c>
+      <c r="K113" t="s">
         <v>772</v>
-      </c>
-      <c r="K113">
-        <v>2</v>
       </c>
       <c r="L113" t="s">
         <v>388</v>
@@ -10038,11 +10038,11 @@
       <c r="I114" t="s">
         <v>777</v>
       </c>
-      <c r="J114" t="s">
+      <c r="J114">
+        <v>4</v>
+      </c>
+      <c r="K114" t="s">
         <v>426</v>
-      </c>
-      <c r="K114">
-        <v>4</v>
       </c>
       <c r="L114" t="s">
         <v>388</v>
@@ -10094,11 +10094,11 @@
       <c r="I115" t="s">
         <v>783</v>
       </c>
-      <c r="J115" t="s">
+      <c r="J115">
+        <v>4</v>
+      </c>
+      <c r="K115" t="s">
         <v>784</v>
-      </c>
-      <c r="K115">
-        <v>4</v>
       </c>
       <c r="L115" t="s">
         <v>388</v>
@@ -10144,11 +10144,11 @@
       <c r="I116" t="s">
         <v>789</v>
       </c>
-      <c r="J116" t="s">
+      <c r="J116">
+        <v>4</v>
+      </c>
+      <c r="K116" t="s">
         <v>426</v>
-      </c>
-      <c r="K116">
-        <v>4</v>
       </c>
       <c r="L116" t="s">
         <v>388</v>
@@ -10203,11 +10203,11 @@
       <c r="I117" t="s">
         <v>794</v>
       </c>
-      <c r="J117" t="s">
+      <c r="J117">
+        <v>4</v>
+      </c>
+      <c r="K117" t="s">
         <v>795</v>
-      </c>
-      <c r="K117">
-        <v>4</v>
       </c>
       <c r="L117" t="s">
         <v>388</v>
@@ -10259,11 +10259,11 @@
       <c r="I118" t="s">
         <v>799</v>
       </c>
-      <c r="J118" t="s">
+      <c r="J118">
+        <v>4</v>
+      </c>
+      <c r="K118" t="s">
         <v>800</v>
-      </c>
-      <c r="K118">
-        <v>4</v>
       </c>
       <c r="L118" t="s">
         <v>388</v>
